--- a/thanQu Design.xlsx
+++ b/thanQu Design.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="383">
   <si>
     <t>thanQu Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/$(classID)/makeQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1120,26 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$(classID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(classID)/questionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$(classID)/$(questionID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(questionID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(classID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Web Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1180,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/$(classID)/questionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1364,14 +1336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/$(classID)/$(questionID)/makeComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(classID)/$(questionID)/questionDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1397,10 +1361,6 @@
   </si>
   <si>
     <t>10. Get Comment List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(classID)/$(questionID)/commentList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1564,11 +1524,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/$(classID)/$(questionID)/$(likeID)/addLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/$(classID)/$(questionID)/$(likeID)/removeLike</t>
+    <t>/makeQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionList/$(classID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionDetail/$(classID)/$(questionID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/makeComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/commentList/$(classID)/$(questionID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addLike/$(classID)/$(questionID)/$(likeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/removeLike/$(classID)/$(questionID)/$(likeID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2940,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3002,10 +2998,10 @@
       <c r="K4" s="69"/>
       <c r="L4" s="70"/>
       <c r="N4" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O4" s="104" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3032,10 +3028,10 @@
       </c>
       <c r="L5" s="46"/>
       <c r="N5" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="76" t="s">
         <v>270</v>
-      </c>
-      <c r="O5" s="76" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -3647,11 +3643,9 @@
         <v>38</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>274</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="D34" s="77"/>
       <c r="E34" s="12"/>
       <c r="G34" s="67" t="s">
         <v>226</v>
@@ -3733,7 +3727,7 @@
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="29" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="31"/>
@@ -3925,21 +3919,21 @@
         <v>258</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="I46" s="62"/>
       <c r="J46" s="62" t="s">
         <v>260</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L46" s="63"/>
       <c r="O46" s="41"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>74</v>
@@ -3962,7 +3956,7 @@
         <v>154</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L47" s="102"/>
       <c r="M47" s="80"/>
@@ -3986,7 +3980,7 @@
         <v>164</v>
       </c>
       <c r="H48" s="131" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I48" s="131"/>
       <c r="J48" s="131"/>
@@ -4041,17 +4035,17 @@
       </c>
       <c r="F50" s="80"/>
       <c r="G50" s="92" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38" t="s">
         <v>221</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L50" s="102"/>
       <c r="M50" s="80"/>
@@ -4059,7 +4053,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>74</v>
@@ -4072,10 +4066,10 @@
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="92" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H51" s="130" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -4093,10 +4087,10 @@
       <c r="E52" s="34"/>
       <c r="F52" s="80"/>
       <c r="G52" s="134" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H52" s="93" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I52" s="85"/>
       <c r="J52" s="85"/>
@@ -4129,7 +4123,7 @@
       <c r="E54" s="32"/>
       <c r="F54" s="80"/>
       <c r="G54" s="135" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H54" s="100"/>
       <c r="I54" s="100"/>
@@ -4138,7 +4132,7 @@
       <c r="L54" s="101"/>
       <c r="M54" s="80"/>
       <c r="N54" s="138" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="O54" s="139"/>
     </row>
@@ -4151,22 +4145,22 @@
       <c r="E55" s="119"/>
       <c r="F55" s="80"/>
       <c r="G55" s="92" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38" t="s">
         <v>153</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L55" s="102"/>
       <c r="M55" s="80"/>
       <c r="N55" s="140" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="O55" s="141"/>
       <c r="Q55" s="41"/>
@@ -4180,17 +4174,17 @@
       <c r="E56" s="119"/>
       <c r="F56" s="80"/>
       <c r="G56" s="92" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I56" s="38"/>
       <c r="J56" s="38" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L56" s="102"/>
       <c r="M56" s="80"/>
@@ -4206,10 +4200,10 @@
       <c r="E57" s="119"/>
       <c r="F57" s="80"/>
       <c r="G57" s="92" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H57" s="131" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I57" s="131"/>
       <c r="J57" s="131"/>
@@ -4228,22 +4222,22 @@
       <c r="E58" s="125"/>
       <c r="F58" s="80"/>
       <c r="G58" s="92" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H58" s="37" t="s">
         <v>168</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>156</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L58" s="133" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M58" s="80"/>
       <c r="N58" s="142"/>
@@ -4255,10 +4249,10 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L59" s="133"/>
       <c r="M59" s="80"/>
@@ -4272,20 +4266,20 @@
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="129" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F60" s="80"/>
       <c r="G60" s="92"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L60" s="133" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M60" s="80"/>
       <c r="N60" s="142"/>
@@ -4305,13 +4299,13 @@
       <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="85" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K61" s="93" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L61" s="137" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M61" s="80"/>
       <c r="N61" s="143"/>
@@ -4322,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="63"/>
@@ -4346,7 +4340,7 @@
       <c r="E63" s="63"/>
       <c r="F63" s="80"/>
       <c r="G63" s="135" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H63" s="100"/>
       <c r="I63" s="100"/>
@@ -4355,14 +4349,14 @@
       <c r="L63" s="101"/>
       <c r="M63" s="80"/>
       <c r="N63" s="24" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="O63" s="25"/>
       <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
       <c r="R63" s="25"/>
       <c r="S63" s="160" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
@@ -4370,45 +4364,45 @@
         <v>21</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="63"/>
       <c r="F64" s="80"/>
       <c r="G64" s="92" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="I64" s="38"/>
       <c r="J64" s="62"/>
       <c r="K64" s="38" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L64" s="133" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M64" s="80"/>
       <c r="N64" s="61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O64" s="62" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P64" s="62"/>
       <c r="Q64" s="62"/>
       <c r="R64" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="S64" s="84" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="C65" s="29" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="31"/>
@@ -4422,25 +4416,25 @@
       <c r="I65" s="38"/>
       <c r="J65" s="62"/>
       <c r="K65" s="38" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L65" s="133" t="s">
         <v>162</v>
       </c>
       <c r="M65" s="80"/>
       <c r="N65" s="61" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P65" s="62"/>
       <c r="Q65" s="62"/>
       <c r="R65" s="62" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="S65" s="84" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
@@ -4450,10 +4444,10 @@
       <c r="E66" s="63"/>
       <c r="F66" s="80"/>
       <c r="G66" s="92" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H66" s="131" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I66" s="131"/>
       <c r="J66" s="131"/>
@@ -4461,10 +4455,10 @@
       <c r="L66" s="132"/>
       <c r="M66" s="80"/>
       <c r="N66" s="61" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O66" s="116" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P66" s="116"/>
       <c r="Q66" s="116"/>
@@ -4486,35 +4480,35 @@
         <v>168</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="J67" s="38" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K67" s="37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L67" s="133" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M67" s="80"/>
       <c r="N67" s="61" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="O67" s="37" t="s">
         <v>168</v>
       </c>
       <c r="P67" s="37" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q67" s="62" t="s">
         <v>156</v>
       </c>
       <c r="R67" s="37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="S67" s="133" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -4534,19 +4528,19 @@
         <v>221</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L68" s="133"/>
       <c r="M68" s="80"/>
       <c r="N68" s="59" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O68" s="74" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P68" s="74"/>
       <c r="Q68" s="60" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="R68" s="74" t="s">
         <v>165</v>
@@ -4571,17 +4565,17 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L69" s="133"/>
       <c r="M69" s="80"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>82</v>
@@ -4597,22 +4591,22 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K70" s="37" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L70" s="133"/>
       <c r="M70" s="80"/>
       <c r="N70" s="24" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
       <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
       <c r="S70" s="160" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
@@ -4627,26 +4621,26 @@
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="38" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K71" s="37" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="L71" s="63"/>
       <c r="M71" s="80"/>
       <c r="N71" s="61" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O71" s="62" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P71" s="62"/>
       <c r="Q71" s="62"/>
       <c r="R71" s="62" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="S71" s="84" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
@@ -4659,28 +4653,28 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K72" s="37" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L72" s="133" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M72" s="80"/>
       <c r="N72" s="61" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="O72" s="64" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="P72" s="62"/>
       <c r="Q72" s="62"/>
       <c r="R72" s="62" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="S72" s="84" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
@@ -4697,18 +4691,18 @@
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
       <c r="J73" s="38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K73" s="37" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L73" s="63"/>
       <c r="M73" s="80"/>
       <c r="N73" s="61" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O73" s="116" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="P73" s="116"/>
       <c r="Q73" s="116"/>
@@ -4733,35 +4727,35 @@
       <c r="H74" s="85"/>
       <c r="I74" s="85"/>
       <c r="J74" s="85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K74" s="93" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L74" s="136"/>
       <c r="M74" s="80"/>
       <c r="N74" s="61" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="O74" s="37" t="s">
         <v>168</v>
       </c>
       <c r="P74" s="37" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q74" s="62" t="s">
         <v>156</v>
       </c>
       <c r="R74" s="37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="S74" s="133" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>53</v>
@@ -4781,14 +4775,14 @@
       <c r="L75" s="62"/>
       <c r="M75" s="80"/>
       <c r="N75" s="59" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O75" s="74" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P75" s="74"/>
       <c r="Q75" s="60" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="R75" s="74" t="s">
         <v>165</v>
@@ -4804,14 +4798,14 @@
       <c r="E76" s="34"/>
       <c r="F76" s="80"/>
       <c r="G76" s="135" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H76" s="100"/>
       <c r="I76" s="100"/>
       <c r="J76" s="100"/>
       <c r="K76" s="100"/>
       <c r="L76" s="160" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M76" s="80"/>
       <c r="N76" s="80"/>
@@ -4828,7 +4822,7 @@
         <v>157</v>
       </c>
       <c r="H77" s="146" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="I77" s="146"/>
       <c r="J77" s="150"/>
@@ -4836,7 +4830,7 @@
         <v>153</v>
       </c>
       <c r="L77" s="151" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M77" s="80"/>
       <c r="N77" s="80"/>
@@ -4850,7 +4844,7 @@
       <c r="E78" s="125"/>
       <c r="F78" s="80"/>
       <c r="G78" s="149" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H78" s="148" t="s">
         <v>160</v>
@@ -4858,7 +4852,7 @@
       <c r="I78" s="146"/>
       <c r="J78" s="150"/>
       <c r="K78" s="146" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L78" s="151" t="s">
         <v>162</v>
@@ -4874,7 +4868,7 @@
         <v>164</v>
       </c>
       <c r="H79" s="156" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="I79" s="156"/>
       <c r="J79" s="156"/>
@@ -4890,22 +4884,22 @@
       </c>
       <c r="F80" s="80"/>
       <c r="G80" s="149" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H80" s="148" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I80" s="148" t="s">
         <v>169</v>
       </c>
       <c r="J80" s="146" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K80" s="148" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L80" s="151" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M80" s="80"/>
       <c r="N80" s="80"/>
@@ -4913,10 +4907,10 @@
     <row r="81" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F81" s="80"/>
       <c r="G81" s="149" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H81" s="148" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I81" s="148"/>
       <c r="J81" s="146" t="s">
@@ -4932,10 +4926,10 @@
     <row r="82" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F82" s="80"/>
       <c r="G82" s="149" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H82" s="148" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I82" s="148"/>
       <c r="J82" s="146"/>
@@ -4947,10 +4941,10 @@
     <row r="83" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F83" s="80"/>
       <c r="G83" s="149" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H83" s="148" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I83" s="62"/>
       <c r="J83" s="62"/>
@@ -4962,10 +4956,10 @@
     <row r="84" spans="6:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" s="80"/>
       <c r="G84" s="152" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H84" s="153" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I84" s="153"/>
       <c r="J84" s="154"/>
@@ -4983,25 +4977,25 @@
       <c r="L85" s="146"/>
       <c r="M85" s="147"/>
       <c r="N85" s="161" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="O85" s="162"/>
     </row>
     <row r="86" spans="6:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="147"/>
       <c r="G86" s="158" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H86" s="159"/>
       <c r="I86" s="159"/>
       <c r="J86" s="159"/>
       <c r="K86" s="159"/>
       <c r="L86" s="160" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M86" s="147"/>
       <c r="N86" s="163" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="O86" s="164"/>
     </row>
@@ -5011,7 +5005,7 @@
         <v>157</v>
       </c>
       <c r="H87" s="146" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="I87" s="146"/>
       <c r="J87" s="146"/>
@@ -5019,7 +5013,7 @@
         <v>153</v>
       </c>
       <c r="L87" s="151" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M87" s="147"/>
       <c r="N87" s="163"/>
@@ -5031,15 +5025,15 @@
         <v>175</v>
       </c>
       <c r="H88" s="148" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="I88" s="146"/>
       <c r="J88" s="146"/>
       <c r="K88" s="146" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L88" s="151" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M88" s="147"/>
       <c r="N88" s="163"/>
@@ -5048,10 +5042,10 @@
     <row r="89" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F89" s="147"/>
       <c r="G89" s="149" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H89" s="156" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="I89" s="156"/>
       <c r="J89" s="156"/>
@@ -5064,22 +5058,22 @@
     <row r="90" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F90" s="147"/>
       <c r="G90" s="149" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H90" s="148" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="I90" s="148" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J90" s="146" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K90" s="148" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L90" s="151" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M90" s="147"/>
       <c r="N90" s="163"/>
@@ -5094,7 +5088,7 @@
         <v>221</v>
       </c>
       <c r="K91" s="148" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L91" s="151"/>
       <c r="M91" s="147"/>
@@ -5107,13 +5101,13 @@
       <c r="H92" s="146"/>
       <c r="I92" s="146"/>
       <c r="J92" s="146" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K92" s="148" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L92" s="151" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M92" s="147"/>
       <c r="N92" s="165"/>
@@ -5125,13 +5119,13 @@
       <c r="H93" s="154"/>
       <c r="I93" s="154"/>
       <c r="J93" s="85" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K93" s="93" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L93" s="145" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M93" s="147"/>
       <c r="N93" s="80"/>

--- a/thanQu Design.xlsx
+++ b/thanQu Design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="11700" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="382">
   <si>
     <t>thanQu Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RESTful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -912,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nextstep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,10 +937,6 @@
   </si>
   <si>
     <t>강의실 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1100,27 +1080,351 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Web Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>강의실 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유저 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. Get Question List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elem_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionsInfos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json-array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. Get Question Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentInfos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 강의정보와 질문정보 세팅(WebAPI #8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 질문 목록을 받아온다. (WebAPI #7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 상세보기 (Session 값에 로그인 정보가 없으면 Web으로 판단)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. Register Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>질문 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classID</t>
+    <t>10. Get Comment List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 덧글리스트 로드(WebAPI #10 - Async)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elem_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덧글 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Async!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. Add 1 Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10 Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference #10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference #7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7 Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 질문에 공감 1개 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1128,19 +1432,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의실 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 내용</t>
+    <t>12. Remove 1 Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 질문에 공감 1개 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>didLike</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1148,55 +1452,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7. Get Question List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classID</t>
+    <t>mobile-only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/makeQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionList/$(classID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionDetail/$(classID)/$(questionID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTful (BaseURL = /api)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/questionDetail/$(questionID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/commentList/$(questionID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1204,299 +1528,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elem_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionsInfos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json-array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. Get Question Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentInfos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 강의정보와 질문정보 세팅(WebAPI #8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 질문 목록을 받아온다. (WebAPI #7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 상세보기 (Session 값에 로그인 정보가 없으면 Web으로 판단)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. Register Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덧글 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>questionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질문 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. Get Comment List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 덧글리스트 로드(WebAPI #10 - Async)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elem_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덧글 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덧글 목록 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Async!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. Add 1 Like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10 Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference #10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference #7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#7 Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 질문에 공감 1개 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. Remove 1 Like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 질문에 공감 1개 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>didLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile-only</t>
+    <t>/removeLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addLike</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1508,63 +1552,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/makeComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Json-Array(questionsInfos) {
     Json-Object[N] {
         commentID, time, content
     }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/makeQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/questionList/$(classID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/questionDetail/$(classID)/$(questionID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/makeComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/commentList/$(classID)/$(questionID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addLike/$(classID)/$(questionID)/$(likeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/removeLike/$(classID)/$(questionID)/$(likeID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1953,7 +1949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2160,12 +2156,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2178,33 +2235,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2214,99 +2289,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -2590,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2602,34 +2609,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="G3" s="106" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="G3" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="49" t="s">
@@ -2727,18 +2734,18 @@
     </row>
     <row r="9" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="G10" s="106" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
+      <c r="G10" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
@@ -2869,12 +2876,12 @@
       <c r="D17" s="53"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G19" s="51" t="s">
@@ -2934,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S106"/>
+  <dimension ref="B1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="M52" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2952,35 +2959,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
     </row>
     <row r="3" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="G3" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="B3" s="148" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="G3" s="140" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -2997,14 +3010,10 @@
       <c r="J4" s="69"/>
       <c r="K4" s="69"/>
       <c r="L4" s="70"/>
-      <c r="N4" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="O4" s="104" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="107"/>
+      <c r="O4" s="105"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>157</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="45" t="s">
@@ -3027,12 +3036,8 @@
         <v>151</v>
       </c>
       <c r="L5" s="46"/>
-      <c r="N5" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="O5" s="76" t="s">
-        <v>270</v>
-      </c>
+      <c r="N5" s="107"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -3047,16 +3052,18 @@
         <v>2</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>162</v>
-      </c>
       <c r="L6" s="46"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3066,15 +3073,17 @@
       <c r="D7" s="4"/>
       <c r="E7" s="14"/>
       <c r="G7" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+        <v>163</v>
+      </c>
+      <c r="H7" s="159" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="160"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
@@ -3085,19 +3094,19 @@
         <v>155</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="78" t="s">
         <v>168</v>
-      </c>
-      <c r="I8" s="78" t="s">
-        <v>169</v>
       </c>
       <c r="J8" s="72" t="s">
         <v>156</v>
       </c>
       <c r="K8" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -3111,14 +3120,14 @@
         <v>99</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>165</v>
+        <v>218</v>
+      </c>
+      <c r="K9" s="105" t="s">
+        <v>164</v>
       </c>
       <c r="L9" s="12"/>
     </row>
@@ -3130,16 +3139,20 @@
       <c r="D10" s="3"/>
       <c r="E10" s="22"/>
       <c r="G10" s="66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="43"/>
+        <v>162</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="105" t="s">
+        <v>97</v>
+      </c>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3147,7 +3160,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
@@ -3156,13 +3169,13 @@
         <v>16</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I11" s="75"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="173"/>
       <c r="K11" s="74"/>
       <c r="L11" s="76"/>
     </row>
@@ -3194,7 +3207,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -3211,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I14" s="77"/>
       <c r="J14" s="77" t="s">
@@ -3230,17 +3243,17 @@
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I15" s="77"/>
       <c r="J15" s="77" t="s">
         <v>154</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" s="83"/>
     </row>
@@ -3254,15 +3267,15 @@
       <c r="D16" s="3"/>
       <c r="E16" s="12"/>
       <c r="G16" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+        <v>163</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="160"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
@@ -3274,22 +3287,22 @@
       <c r="D17" s="3"/>
       <c r="E17" s="12"/>
       <c r="G17" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>179</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -3307,14 +3320,14 @@
         <v>99</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I18" s="73"/>
       <c r="J18" s="77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -3328,23 +3341,21 @@
       <c r="D19" s="6"/>
       <c r="E19" s="22"/>
       <c r="G19" s="67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I19" s="75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J19" s="85" t="s">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="K19" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="L19" s="76" t="s">
-        <v>185</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
@@ -3366,7 +3377,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="22"/>
       <c r="G21" s="86" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -3385,14 +3396,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77" t="s">
         <v>153</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L22" s="83"/>
     </row>
@@ -3407,14 +3418,14 @@
         <v>2</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I23" s="77"/>
       <c r="J23" s="77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L23" s="83"/>
     </row>
@@ -3423,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -3432,15 +3443,15 @@
         <v>20</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="127"/>
+        <v>195</v>
+      </c>
+      <c r="H24" s="159" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
@@ -3457,22 +3468,22 @@
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="79" t="s">
+      <c r="L25" s="97" t="s">
         <v>201</v>
-      </c>
-      <c r="I25" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25" s="97" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3483,17 +3494,17 @@
       <c r="D26" s="8"/>
       <c r="E26" s="34"/>
       <c r="G26" s="67" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I26" s="99"/>
       <c r="J26" s="85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L26" s="94"/>
     </row>
@@ -3517,7 +3528,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="32"/>
       <c r="G28" s="81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -3526,35 +3537,35 @@
       <c r="L28" s="101"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="163"/>
       <c r="G29" s="92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L29" s="102"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
       <c r="G30" s="82" t="s">
         <v>2</v>
       </c>
@@ -3566,22 +3577,22 @@
         <v>154</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L30" s="102"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="128"/>
+        <v>207</v>
+      </c>
+      <c r="H31" s="148" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -3592,22 +3603,22 @@
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="G32" s="82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H32" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="S32" s="1"/>
     </row>
@@ -3621,20 +3632,20 @@
       <c r="D33" s="3"/>
       <c r="E33" s="12"/>
       <c r="G33" s="92" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K33" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S33" s="37"/>
     </row>
@@ -3643,25 +3654,25 @@
         <v>38</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D34" s="77"/>
       <c r="E34" s="12"/>
       <c r="G34" s="67" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H34" s="74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K34" s="74" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="76" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S34" s="1"/>
     </row>
@@ -3685,17 +3696,17 @@
       <c r="D36" s="6"/>
       <c r="E36" s="22"/>
       <c r="G36" s="81" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="26"/>
-      <c r="N36" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="O36" s="115"/>
+      <c r="N36" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" s="169"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
@@ -3708,45 +3719,45 @@
         <v>3</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I37" s="45"/>
       <c r="J37" s="45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L37" s="46"/>
-      <c r="N37" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="O37" s="111"/>
+      <c r="N37" s="164" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" s="165"/>
       <c r="P37" s="103"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="29" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="31"/>
       <c r="G38" s="82" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I38" s="45"/>
       <c r="J38" s="45" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L38" s="46"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="111"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="165"/>
       <c r="P38" s="103"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -3755,17 +3766,17 @@
       <c r="D39" s="6"/>
       <c r="E39" s="22"/>
       <c r="G39" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="116" t="s">
-        <v>252</v>
-      </c>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="128"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="111"/>
+        <v>236</v>
+      </c>
+      <c r="H39" s="148" t="s">
+        <v>247</v>
+      </c>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="149"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="165"/>
       <c r="P39" s="103"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
@@ -3776,25 +3787,25 @@
       <c r="D40" s="2"/>
       <c r="E40" s="32"/>
       <c r="G40" s="82" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="N40" s="110"/>
-      <c r="O40" s="111"/>
+        <v>241</v>
+      </c>
+      <c r="N40" s="164"/>
+      <c r="O40" s="165"/>
       <c r="P40" s="103"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
@@ -3810,14 +3821,14 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K41" s="43" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L41" s="12"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="111"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="165"/>
       <c r="P41" s="103"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -3825,7 +3836,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>45</v>
@@ -3837,16 +3848,16 @@
       <c r="H42" s="45"/>
       <c r="I42" s="45"/>
       <c r="J42" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K42" s="43" t="s">
         <v>13</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="N42" s="110"/>
-      <c r="O42" s="111"/>
+        <v>246</v>
+      </c>
+      <c r="N42" s="164"/>
+      <c r="O42" s="165"/>
       <c r="P42" s="103"/>
     </row>
     <row r="43" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3860,16 +3871,16 @@
       <c r="H43" s="48"/>
       <c r="I43" s="48"/>
       <c r="J43" s="48" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K43" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="L43" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="N43" s="112"/>
-      <c r="O43" s="113"/>
+        <v>244</v>
+      </c>
+      <c r="L43" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="N43" s="166"/>
+      <c r="O43" s="167"/>
       <c r="P43" s="103"/>
     </row>
     <row r="44" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -3893,7 +3904,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="32"/>
       <c r="G45" s="24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
@@ -3907,7 +3918,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>52</v>
@@ -3916,24 +3927,24 @@
         <v>16</v>
       </c>
       <c r="G46" s="82" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I46" s="62"/>
       <c r="J46" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="K46" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="K46" s="37" t="s">
-        <v>265</v>
       </c>
       <c r="L46" s="63"/>
       <c r="O46" s="41"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>74</v>
@@ -3946,7 +3957,7 @@
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="92" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>17</v>
@@ -3956,7 +3967,7 @@
         <v>154</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L47" s="102"/>
       <c r="M47" s="80"/>
@@ -3977,15 +3988,15 @@
       </c>
       <c r="F48" s="80"/>
       <c r="G48" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="131" t="s">
-        <v>267</v>
-      </c>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="131"/>
-      <c r="L48" s="132"/>
+        <v>163</v>
+      </c>
+      <c r="H48" s="146" t="s">
+        <v>262</v>
+      </c>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="147"/>
       <c r="M48" s="80"/>
       <c r="O48" s="41"/>
     </row>
@@ -4000,22 +4011,22 @@
       <c r="E49" s="36"/>
       <c r="F49" s="80"/>
       <c r="G49" s="92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="L49" s="133" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="L49" s="114" t="s">
+        <v>259</v>
       </c>
       <c r="M49" s="80"/>
       <c r="O49" s="41"/>
@@ -4025,7 +4036,7 @@
         <v>65</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>15</v>
@@ -4035,17 +4046,17 @@
       </c>
       <c r="F50" s="80"/>
       <c r="G50" s="92" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L50" s="102"/>
       <c r="M50" s="80"/>
@@ -4053,7 +4064,7 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>74</v>
@@ -4066,10 +4077,10 @@
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" s="130" t="s">
-        <v>277</v>
+        <v>265</v>
+      </c>
+      <c r="H51" s="112" t="s">
+        <v>268</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
@@ -4086,11 +4097,11 @@
       <c r="D52" s="8"/>
       <c r="E52" s="34"/>
       <c r="F52" s="80"/>
-      <c r="G52" s="134" t="s">
-        <v>275</v>
+      <c r="G52" s="115" t="s">
+        <v>266</v>
       </c>
       <c r="H52" s="93" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I52" s="85"/>
       <c r="J52" s="85"/>
@@ -4122,8 +4133,8 @@
       <c r="D54" s="2"/>
       <c r="E54" s="32"/>
       <c r="F54" s="80"/>
-      <c r="G54" s="135" t="s">
-        <v>280</v>
+      <c r="G54" s="116" t="s">
+        <v>271</v>
       </c>
       <c r="H54" s="100"/>
       <c r="I54" s="100"/>
@@ -4131,117 +4142,117 @@
       <c r="K54" s="100"/>
       <c r="L54" s="101"/>
       <c r="M54" s="80"/>
-      <c r="N54" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="O54" s="139"/>
+      <c r="N54" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="O54" s="120"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="119"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="163"/>
       <c r="F55" s="80"/>
       <c r="G55" s="92" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38" t="s">
         <v>153</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L55" s="102"/>
       <c r="M55" s="80"/>
-      <c r="N55" s="140" t="s">
-        <v>368</v>
-      </c>
-      <c r="O55" s="141"/>
+      <c r="N55" s="141" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" s="142"/>
       <c r="Q55" s="41"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="119"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="163"/>
       <c r="F56" s="80"/>
       <c r="G56" s="92" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I56" s="38"/>
       <c r="J56" s="38" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L56" s="102"/>
       <c r="M56" s="80"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="141"/>
+      <c r="N56" s="143"/>
+      <c r="O56" s="142"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="119"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="163"/>
       <c r="F57" s="80"/>
       <c r="G57" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="131" t="s">
-        <v>288</v>
-      </c>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="132"/>
+        <v>278</v>
+      </c>
+      <c r="H57" s="146" t="s">
+        <v>279</v>
+      </c>
+      <c r="I57" s="146"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="147"/>
       <c r="M57" s="80"/>
-      <c r="N57" s="142"/>
-      <c r="O57" s="141"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="142"/>
     </row>
     <row r="58" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="125"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="158"/>
       <c r="F58" s="80"/>
       <c r="G58" s="92" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>156</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="L58" s="133" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="L58" s="114" t="s">
+        <v>281</v>
       </c>
       <c r="M58" s="80"/>
-      <c r="N58" s="142"/>
-      <c r="O58" s="141"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="142"/>
     </row>
     <row r="59" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="80"/>
@@ -4249,15 +4260,15 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="L59" s="133"/>
+        <v>284</v>
+      </c>
+      <c r="L59" s="114"/>
       <c r="M59" s="80"/>
-      <c r="N59" s="142"/>
-      <c r="O59" s="141"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="142"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
@@ -4265,25 +4276,25 @@
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="129" t="s">
-        <v>272</v>
+      <c r="E60" s="111" t="s">
+        <v>263</v>
       </c>
       <c r="F60" s="80"/>
       <c r="G60" s="92"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="L60" s="133" t="s">
-        <v>297</v>
+        <v>286</v>
+      </c>
+      <c r="L60" s="114" t="s">
+        <v>287</v>
       </c>
       <c r="M60" s="80"/>
-      <c r="N60" s="142"/>
-      <c r="O60" s="141"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="142"/>
     </row>
     <row r="61" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="61" t="s">
@@ -4295,28 +4306,28 @@
       <c r="D61" s="62"/>
       <c r="E61" s="63"/>
       <c r="F61" s="80"/>
-      <c r="G61" s="134"/>
+      <c r="G61" s="115"/>
       <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="85" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K61" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="L61" s="137" t="s">
-        <v>352</v>
+        <v>289</v>
+      </c>
+      <c r="L61" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="M61" s="80"/>
-      <c r="N61" s="143"/>
-      <c r="O61" s="144"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="145"/>
     </row>
     <row r="62" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="61" t="s">
         <v>38</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="63"/>
@@ -4339,8 +4350,8 @@
       <c r="D63" s="62"/>
       <c r="E63" s="63"/>
       <c r="F63" s="80"/>
-      <c r="G63" s="135" t="s">
-        <v>300</v>
+      <c r="G63" s="116" t="s">
+        <v>290</v>
       </c>
       <c r="H63" s="100"/>
       <c r="I63" s="100"/>
@@ -4349,14 +4360,14 @@
       <c r="L63" s="101"/>
       <c r="M63" s="80"/>
       <c r="N63" s="24" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="O63" s="25"/>
       <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
       <c r="R63" s="25"/>
-      <c r="S63" s="160" t="s">
-        <v>348</v>
+      <c r="S63" s="134" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
@@ -4364,51 +4375,51 @@
         <v>21</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D64" s="62"/>
       <c r="E64" s="63"/>
       <c r="F64" s="80"/>
       <c r="G64" s="92" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I64" s="38"/>
       <c r="J64" s="62"/>
       <c r="K64" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="L64" s="133" t="s">
-        <v>318</v>
+        <v>293</v>
+      </c>
+      <c r="L64" s="114" t="s">
+        <v>308</v>
       </c>
       <c r="M64" s="80"/>
       <c r="N64" s="61" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O64" s="62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P64" s="62"/>
       <c r="Q64" s="62"/>
       <c r="R64" s="62" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="S64" s="84" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
       <c r="C65" s="29" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="31"/>
       <c r="F65" s="80"/>
       <c r="G65" s="92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H65" s="37" t="s">
         <v>150</v>
@@ -4416,25 +4427,25 @@
       <c r="I65" s="38"/>
       <c r="J65" s="62"/>
       <c r="K65" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="L65" s="133" t="s">
-        <v>162</v>
+        <v>294</v>
+      </c>
+      <c r="L65" s="114" t="s">
+        <v>161</v>
       </c>
       <c r="M65" s="80"/>
       <c r="N65" s="61" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="P65" s="62"/>
       <c r="Q65" s="62"/>
       <c r="R65" s="62" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="S65" s="84" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
@@ -4444,26 +4455,26 @@
       <c r="E66" s="63"/>
       <c r="F66" s="80"/>
       <c r="G66" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="H66" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="132"/>
+        <v>295</v>
+      </c>
+      <c r="H66" s="146" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" s="146"/>
+      <c r="J66" s="146"/>
+      <c r="K66" s="146"/>
+      <c r="L66" s="147"/>
       <c r="M66" s="80"/>
       <c r="N66" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="O66" s="116" t="s">
-        <v>360</v>
-      </c>
-      <c r="P66" s="116"/>
-      <c r="Q66" s="116"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="128"/>
+        <v>278</v>
+      </c>
+      <c r="O66" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="P66" s="148"/>
+      <c r="Q66" s="148"/>
+      <c r="R66" s="148"/>
+      <c r="S66" s="149"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
@@ -4477,41 +4488,41 @@
         <v>155</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J67" s="38" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K67" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="L67" s="133" t="s">
-        <v>309</v>
+        <v>298</v>
+      </c>
+      <c r="L67" s="114" t="s">
+        <v>299</v>
       </c>
       <c r="M67" s="80"/>
       <c r="N67" s="61" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="O67" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P67" s="37" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Q67" s="62" t="s">
         <v>156</v>
       </c>
       <c r="R67" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="S67" s="133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="S67" s="114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="61" t="s">
         <v>77</v>
       </c>
@@ -4525,34 +4536,34 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="L68" s="133"/>
+        <v>300</v>
+      </c>
+      <c r="L68" s="114"/>
       <c r="M68" s="80"/>
-      <c r="N68" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="O68" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="R68" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="S68" s="76"/>
+      <c r="N68" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="O68" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="107" t="s">
+        <v>374</v>
+      </c>
+      <c r="R68" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="S68" s="114"/>
     </row>
     <row r="69" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D69" s="64" t="s">
         <v>15</v>
@@ -4565,17 +4576,27 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="L69" s="133"/>
+        <v>306</v>
+      </c>
+      <c r="L69" s="114"/>
       <c r="M69" s="80"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N69" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="O69" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="76"/>
+    </row>
+    <row r="70" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>82</v>
@@ -4591,23 +4612,13 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K70" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="L70" s="133"/>
+        <v>306</v>
+      </c>
+      <c r="L70" s="114"/>
       <c r="M70" s="80"/>
-      <c r="N70" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="160" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="33" t="s">
@@ -4617,30 +4628,28 @@
       <c r="D71" s="8"/>
       <c r="E71" s="34"/>
       <c r="F71" s="80"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
       <c r="J71" s="38" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="K71" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="L71" s="63"/>
+        <v>355</v>
+      </c>
+      <c r="L71" s="114" t="s">
+        <v>356</v>
+      </c>
       <c r="M71" s="80"/>
-      <c r="N71" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="O71" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="S71" s="84" t="s">
-        <v>356</v>
+      <c r="N71" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="134" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
@@ -4649,35 +4658,33 @@
       <c r="D72" s="62"/>
       <c r="E72" s="63"/>
       <c r="F72" s="80"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
       <c r="J72" s="38" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="K72" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L72" s="133" t="s">
-        <v>367</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="L72" s="63"/>
       <c r="M72" s="80"/>
-      <c r="N72" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="O72" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="S72" s="84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N72" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="O72" s="107" t="s">
+        <v>377</v>
+      </c>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="S72" s="110" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="21" t="s">
         <v>78</v>
       </c>
@@ -4687,75 +4694,67 @@
       <c r="D73" s="2"/>
       <c r="E73" s="32"/>
       <c r="F73" s="80"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="K73" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="L73" s="63"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="K73" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="L73" s="117"/>
       <c r="M73" s="80"/>
-      <c r="N73" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="O73" s="116" t="s">
-        <v>364</v>
-      </c>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="128"/>
+      <c r="N73" s="106" t="s">
+        <v>344</v>
+      </c>
+      <c r="O73" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="S73" s="110" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="74" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="E74" s="84" t="s">
-        <v>189</v>
-      </c>
       <c r="F74" s="80"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="K74" s="93" t="s">
-        <v>317</v>
-      </c>
-      <c r="L74" s="136"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
       <c r="M74" s="80"/>
-      <c r="N74" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="O74" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="P74" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q74" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="R74" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="S74" s="133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N74" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="O74" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="P74" s="148"/>
+      <c r="Q74" s="148"/>
+      <c r="R74" s="148"/>
+      <c r="S74" s="149"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>53</v>
@@ -4767,27 +4766,35 @@
         <v>85</v>
       </c>
       <c r="F75" s="80"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
+      <c r="G75" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="H75" s="100"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="100"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="134" t="s">
+        <v>338</v>
+      </c>
       <c r="M75" s="80"/>
-      <c r="N75" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="O75" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="R75" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="S75" s="76"/>
+      <c r="N75" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="O75" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P75" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q75" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="R75" s="113" t="s">
+        <v>298</v>
+      </c>
+      <c r="S75" s="114" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="33" t="s">
@@ -4797,20 +4804,37 @@
       <c r="D76" s="8"/>
       <c r="E76" s="34"/>
       <c r="F76" s="80"/>
-      <c r="G76" s="135" t="s">
-        <v>322</v>
-      </c>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="160" t="s">
-        <v>348</v>
+      <c r="G76" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="H76" s="122" t="s">
+        <v>380</v>
+      </c>
+      <c r="I76" s="122"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="L76" s="127" t="s">
+        <v>317</v>
       </c>
       <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N76" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="O76" s="113" t="s">
+        <v>373</v>
+      </c>
+      <c r="P76" s="113"/>
+      <c r="Q76" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="R76" s="113" t="s">
+        <v>355</v>
+      </c>
+      <c r="S76" s="114"/>
+    </row>
+    <row r="77" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="21" t="s">
         <v>8</v>
       </c>
@@ -4818,360 +4842,353 @@
       <c r="D77" s="2"/>
       <c r="E77" s="32"/>
       <c r="F77" s="80"/>
-      <c r="G77" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="H77" s="146" t="s">
-        <v>375</v>
-      </c>
-      <c r="I77" s="146"/>
-      <c r="J77" s="150"/>
-      <c r="K77" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="L77" s="151" t="s">
-        <v>327</v>
+      <c r="G77" s="125" t="s">
+        <v>313</v>
+      </c>
+      <c r="H77" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="122"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="L77" s="127" t="s">
+        <v>161</v>
       </c>
       <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
+      <c r="N77" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="O77" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="109"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="76"/>
     </row>
     <row r="78" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="125"/>
+      <c r="C78" s="157"/>
+      <c r="D78" s="157"/>
+      <c r="E78" s="158"/>
       <c r="F78" s="80"/>
-      <c r="G78" s="149" t="s">
-        <v>323</v>
-      </c>
-      <c r="H78" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="I78" s="146"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="146" t="s">
-        <v>285</v>
-      </c>
-      <c r="L78" s="151" t="s">
-        <v>162</v>
-      </c>
+      <c r="G78" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78" s="154" t="s">
+        <v>336</v>
+      </c>
+      <c r="I78" s="154"/>
+      <c r="J78" s="154"/>
+      <c r="K78" s="154"/>
+      <c r="L78" s="155"/>
       <c r="M78" s="80"/>
-      <c r="N78" s="80"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="F79" s="80"/>
-      <c r="G79" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="H79" s="156" t="s">
-        <v>346</v>
-      </c>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
-      <c r="K79" s="156"/>
-      <c r="L79" s="157"/>
+      <c r="G79" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="124" t="s">
+        <v>316</v>
+      </c>
+      <c r="I79" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="K79" s="124" t="s">
+        <v>315</v>
+      </c>
+      <c r="L79" s="127" t="s">
+        <v>299</v>
+      </c>
       <c r="M79" s="80"/>
-      <c r="N79" s="80"/>
-      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E80" s="58" t="s">
         <v>148</v>
       </c>
       <c r="F80" s="80"/>
-      <c r="G80" s="149" t="s">
-        <v>289</v>
-      </c>
-      <c r="H80" s="148" t="s">
-        <v>326</v>
-      </c>
-      <c r="I80" s="148" t="s">
-        <v>169</v>
-      </c>
-      <c r="J80" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="K80" s="148" t="s">
-        <v>325</v>
-      </c>
-      <c r="L80" s="151" t="s">
-        <v>309</v>
-      </c>
+      <c r="G80" s="125" t="s">
+        <v>318</v>
+      </c>
+      <c r="H80" s="124" t="s">
+        <v>319</v>
+      </c>
+      <c r="I80" s="124"/>
+      <c r="J80" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="K80" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="L80" s="127"/>
       <c r="M80" s="80"/>
       <c r="N80" s="80"/>
-    </row>
-    <row r="81" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+    </row>
+    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F81" s="80"/>
-      <c r="G81" s="149" t="s">
-        <v>292</v>
-      </c>
-      <c r="H81" s="148" t="s">
-        <v>276</v>
-      </c>
-      <c r="I81" s="148"/>
-      <c r="J81" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="K81" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="L81" s="151"/>
+      <c r="G81" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="124" t="s">
+        <v>322</v>
+      </c>
+      <c r="I81" s="124"/>
+      <c r="J81" s="122"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="127"/>
       <c r="M81" s="80"/>
       <c r="N81" s="80"/>
-    </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="41"/>
+    </row>
+    <row r="82" spans="6:16" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="80"/>
-      <c r="G82" s="149" t="s">
-        <v>328</v>
-      </c>
-      <c r="H82" s="148" t="s">
-        <v>329</v>
-      </c>
-      <c r="I82" s="148"/>
-      <c r="J82" s="146"/>
-      <c r="K82" s="148"/>
-      <c r="L82" s="151"/>
+      <c r="G82" s="128" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="129" t="s">
+        <v>320</v>
+      </c>
+      <c r="I82" s="129"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="129"/>
+      <c r="L82" s="131"/>
       <c r="M82" s="80"/>
       <c r="N82" s="80"/>
     </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:16" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="80"/>
-      <c r="G83" s="149" t="s">
-        <v>331</v>
-      </c>
-      <c r="H83" s="148" t="s">
-        <v>332</v>
-      </c>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="63"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="122"/>
+      <c r="J83" s="122"/>
+      <c r="K83" s="122"/>
+      <c r="L83" s="122"/>
       <c r="M83" s="80"/>
       <c r="N83" s="80"/>
     </row>
-    <row r="84" spans="6:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F84" s="80"/>
-      <c r="G84" s="152" t="s">
-        <v>275</v>
-      </c>
-      <c r="H84" s="153" t="s">
+      <c r="G84" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="H84" s="133"/>
+      <c r="I84" s="133"/>
+      <c r="J84" s="133"/>
+      <c r="K84" s="133"/>
+      <c r="L84" s="134" t="s">
+        <v>338</v>
+      </c>
+      <c r="M84" s="80"/>
+      <c r="N84" s="135" t="s">
+        <v>340</v>
+      </c>
+      <c r="O84" s="136"/>
+    </row>
+    <row r="85" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F85" s="123"/>
+      <c r="G85" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="H85" s="122" t="s">
+        <v>370</v>
+      </c>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="L85" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="M85" s="123"/>
+      <c r="N85" s="150" t="s">
+        <v>381</v>
+      </c>
+      <c r="O85" s="151"/>
+    </row>
+    <row r="86" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="123"/>
+      <c r="G86" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="H86" s="124" t="s">
+        <v>324</v>
+      </c>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="L86" s="127" t="s">
+        <v>326</v>
+      </c>
+      <c r="M86" s="123"/>
+      <c r="N86" s="150"/>
+      <c r="O86" s="151"/>
+    </row>
+    <row r="87" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F87" s="123"/>
+      <c r="G87" s="125" t="s">
+        <v>295</v>
+      </c>
+      <c r="H87" s="154" t="s">
+        <v>337</v>
+      </c>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
+      <c r="L87" s="155"/>
+      <c r="M87" s="123"/>
+      <c r="N87" s="150"/>
+      <c r="O87" s="151"/>
+    </row>
+    <row r="88" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="123"/>
+      <c r="G88" s="125" t="s">
+        <v>327</v>
+      </c>
+      <c r="H88" s="124" t="s">
+        <v>328</v>
+      </c>
+      <c r="I88" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="J88" s="122" t="s">
         <v>330</v>
       </c>
-      <c r="I84" s="153"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="153"/>
-      <c r="L84" s="155"/>
-      <c r="M84" s="80"/>
-    </row>
-    <row r="85" spans="6:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F85" s="147"/>
-      <c r="G85" s="146"/>
-      <c r="H85" s="146"/>
-      <c r="I85" s="146"/>
-      <c r="J85" s="146"/>
-      <c r="K85" s="146"/>
-      <c r="L85" s="146"/>
-      <c r="M85" s="147"/>
-      <c r="N85" s="161" t="s">
-        <v>350</v>
-      </c>
-      <c r="O85" s="162"/>
-    </row>
-    <row r="86" spans="6:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F86" s="147"/>
-      <c r="G86" s="158" t="s">
+      <c r="K88" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" s="127" t="s">
+        <v>331</v>
+      </c>
+      <c r="M88" s="123"/>
+      <c r="N88" s="150"/>
+      <c r="O88" s="151"/>
+    </row>
+    <row r="89" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F89" s="123"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="122"/>
+      <c r="I89" s="122"/>
+      <c r="J89" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="K89" s="124" t="s">
+        <v>300</v>
+      </c>
+      <c r="L89" s="127"/>
+      <c r="M89" s="123"/>
+      <c r="N89" s="150"/>
+      <c r="O89" s="151"/>
+    </row>
+    <row r="90" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F90" s="123"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="122"/>
+      <c r="I90" s="122"/>
+      <c r="J90" s="122" t="s">
         <v>333</v>
       </c>
-      <c r="H86" s="159"/>
-      <c r="I86" s="159"/>
-      <c r="J86" s="159"/>
-      <c r="K86" s="159"/>
-      <c r="L86" s="160" t="s">
-        <v>348</v>
-      </c>
-      <c r="M86" s="147"/>
-      <c r="N86" s="163" t="s">
-        <v>369</v>
-      </c>
-      <c r="O86" s="164"/>
-    </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F87" s="147"/>
-      <c r="G87" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="H87" s="146" t="s">
-        <v>376</v>
-      </c>
-      <c r="I87" s="146"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="L87" s="151" t="s">
-        <v>318</v>
-      </c>
-      <c r="M87" s="147"/>
-      <c r="N87" s="163"/>
-      <c r="O87" s="164"/>
-    </row>
-    <row r="88" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F88" s="147"/>
-      <c r="G88" s="149" t="s">
-        <v>175</v>
-      </c>
-      <c r="H88" s="148" t="s">
+      <c r="K90" s="124" t="s">
         <v>334</v>
       </c>
-      <c r="I88" s="146"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="146" t="s">
+      <c r="L90" s="127" t="s">
         <v>335</v>
       </c>
-      <c r="L88" s="151" t="s">
-        <v>336</v>
-      </c>
-      <c r="M88" s="147"/>
-      <c r="N88" s="163"/>
-      <c r="O88" s="164"/>
-    </row>
-    <row r="89" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F89" s="147"/>
-      <c r="G89" s="149" t="s">
+      <c r="M90" s="123"/>
+      <c r="N90" s="150"/>
+      <c r="O90" s="151"/>
+    </row>
+    <row r="91" spans="6:16" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="123"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="130"/>
+      <c r="J91" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="H89" s="156" t="s">
-        <v>347</v>
-      </c>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="157"/>
-      <c r="M89" s="147"/>
-      <c r="N89" s="163"/>
-      <c r="O89" s="164"/>
-    </row>
-    <row r="90" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F90" s="147"/>
-      <c r="G90" s="149" t="s">
-        <v>337</v>
-      </c>
-      <c r="H90" s="148" t="s">
-        <v>338</v>
-      </c>
-      <c r="I90" s="148" t="s">
-        <v>339</v>
-      </c>
-      <c r="J90" s="146" t="s">
-        <v>340</v>
-      </c>
-      <c r="K90" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="L90" s="151" t="s">
+      <c r="K91" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="L91" s="121" t="s">
         <v>341</v>
       </c>
-      <c r="M90" s="147"/>
-      <c r="N90" s="163"/>
-      <c r="O90" s="164"/>
-    </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F91" s="147"/>
-      <c r="G91" s="149"/>
-      <c r="H91" s="146"/>
-      <c r="I91" s="146"/>
-      <c r="J91" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="K91" s="148" t="s">
-        <v>310</v>
-      </c>
-      <c r="L91" s="151"/>
-      <c r="M91" s="147"/>
-      <c r="N91" s="163"/>
-      <c r="O91" s="164"/>
-    </row>
-    <row r="92" spans="6:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F92" s="147"/>
-      <c r="G92" s="149"/>
-      <c r="H92" s="146"/>
-      <c r="I92" s="146"/>
-      <c r="J92" s="146" t="s">
-        <v>343</v>
-      </c>
-      <c r="K92" s="148" t="s">
-        <v>344</v>
-      </c>
-      <c r="L92" s="151" t="s">
-        <v>345</v>
-      </c>
-      <c r="M92" s="147"/>
-      <c r="N92" s="165"/>
-      <c r="O92" s="166"/>
-    </row>
-    <row r="93" spans="6:15" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F93" s="147"/>
-      <c r="G93" s="152"/>
-      <c r="H93" s="154"/>
-      <c r="I93" s="154"/>
-      <c r="J93" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="K93" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="L93" s="145" t="s">
-        <v>351</v>
-      </c>
-      <c r="M93" s="147"/>
-      <c r="N93" s="80"/>
-    </row>
-    <row r="94" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F94" s="147"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="147"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="147"/>
-      <c r="K94" s="147"/>
-      <c r="L94" s="147"/>
-      <c r="M94" s="147"/>
-      <c r="N94" s="80"/>
-    </row>
-    <row r="95" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F95" s="147"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="147"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="147"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="147"/>
-      <c r="M95" s="147"/>
+      <c r="M91" s="123"/>
+      <c r="N91" s="152"/>
+      <c r="O91" s="153"/>
+    </row>
+    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="123"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="123"/>
+      <c r="M92" s="123"/>
+    </row>
+    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="123"/>
+      <c r="I93" s="123"/>
+      <c r="J93" s="123"/>
+      <c r="K93" s="123"/>
+      <c r="L93" s="123"/>
+      <c r="M93" s="123"/>
+    </row>
+    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F94" s="123"/>
+      <c r="G94" s="123"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="123"/>
+      <c r="J94" s="123"/>
+      <c r="K94" s="123"/>
+      <c r="L94" s="123"/>
+      <c r="M94" s="123"/>
+    </row>
+    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F95" s="123"/>
+      <c r="G95" s="123"/>
+      <c r="H95" s="123"/>
+      <c r="I95" s="123"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="123"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="123"/>
       <c r="N95" s="80"/>
     </row>
-    <row r="96" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F96" s="147"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="147"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="147"/>
-      <c r="K96" s="147"/>
-      <c r="L96" s="147"/>
-      <c r="M96" s="147"/>
+    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F96" s="123"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="80"/>
+      <c r="I96" s="80"/>
+      <c r="J96" s="80"/>
+      <c r="K96" s="80"/>
+      <c r="L96" s="80"/>
+      <c r="M96" s="123"/>
       <c r="N96" s="80"/>
     </row>
     <row r="97" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F97" s="147"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="147"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="147"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="147"/>
-      <c r="M97" s="147"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="80"/>
+      <c r="H97" s="80"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="80"/>
+      <c r="M97" s="123"/>
       <c r="N97" s="80"/>
     </row>
     <row r="98" spans="6:14" x14ac:dyDescent="0.25">
@@ -5183,9 +5200,8 @@
       <c r="K98" s="80"/>
       <c r="L98" s="80"/>
       <c r="M98" s="80"/>
-      <c r="N98" s="80"/>
-    </row>
-    <row r="99" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="80"/>
       <c r="G99" s="80"/>
       <c r="H99" s="80"/>
@@ -5194,7 +5210,6 @@
       <c r="K99" s="80"/>
       <c r="L99" s="80"/>
       <c r="M99" s="80"/>
-      <c r="N99" s="80"/>
     </row>
     <row r="100" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F100" s="80"/>
@@ -5205,7 +5220,6 @@
       <c r="K100" s="80"/>
       <c r="L100" s="80"/>
       <c r="M100" s="80"/>
-      <c r="N100" s="80"/>
     </row>
     <row r="101" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F101" s="80"/>
@@ -5216,7 +5230,6 @@
       <c r="K101" s="80"/>
       <c r="L101" s="80"/>
       <c r="M101" s="80"/>
-      <c r="N101" s="80"/>
     </row>
     <row r="102" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F102" s="80"/>
@@ -5227,7 +5240,6 @@
       <c r="K102" s="80"/>
       <c r="L102" s="80"/>
       <c r="M102" s="80"/>
-      <c r="N102" s="80"/>
     </row>
     <row r="103" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F103" s="80"/>
@@ -5238,7 +5250,6 @@
       <c r="K103" s="80"/>
       <c r="L103" s="80"/>
       <c r="M103" s="80"/>
-      <c r="N103" s="80"/>
     </row>
     <row r="104" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F104" s="80"/>
@@ -5249,39 +5260,31 @@
       <c r="K104" s="80"/>
       <c r="L104" s="80"/>
       <c r="M104" s="80"/>
-      <c r="N104" s="80"/>
     </row>
     <row r="105" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F105" s="80"/>
-      <c r="G105" s="80"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="80"/>
-      <c r="J105" s="80"/>
-      <c r="K105" s="80"/>
-      <c r="L105" s="80"/>
       <c r="M105" s="80"/>
-      <c r="N105" s="80"/>
     </row>
     <row r="106" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F106" s="80"/>
-      <c r="G106" s="80"/>
-      <c r="H106" s="80"/>
-      <c r="I106" s="80"/>
-      <c r="J106" s="80"/>
-      <c r="K106" s="80"/>
-      <c r="L106" s="80"/>
       <c r="M106" s="80"/>
       <c r="N106" s="80"/>
     </row>
+    <row r="107" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N107" s="80"/>
+    </row>
+    <row r="108" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="80"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N55:O61"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="O66:S66"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="N86:O92"/>
-    <mergeCell ref="H89:L89"/>
-    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="N85:O91"/>
+    <mergeCell ref="N37:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="B1:L1"/>
@@ -5295,12 +5298,12 @@
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="H57:L57"/>
-    <mergeCell ref="N37:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="N55:O61"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="O66:S66"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="O74:S74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
